--- a/biology/Biochimie/Réaction_du_biuret/Réaction_du_biuret.xlsx
+++ b/biology/Biochimie/Réaction_du_biuret/Réaction_du_biuret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9action_du_biuret</t>
+          <t>Réaction_du_biuret</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction du biuret est une réaction mettant en évidence les liaisons peptidiques. 
 La méthode consiste à mettre en milieu basique des ions cuivre(II) en présence de protéines (ou de biuret). Il est également possible d'impliquer cette réaction dans un dosage colorimétrique à 540 nm. Un complexe coloré mauve ou violet se forme en effet lorsque les ions Cu(II) sont complexés par deux groupes carbonyles présents de part et d'autre d'une des liaisons peptidiques de la protéine. Plus nombreuses sont les liaisons, plus grande est l'absorbance.
